--- a/medicine/Enfance/Liste_des_contes_des_Mille_et_Une_Nuits/Liste_des_contes_des_Mille_et_Une_Nuits.xlsx
+++ b/medicine/Enfance/Liste_des_contes_des_Mille_et_Une_Nuits/Liste_des_contes_des_Mille_et_Une_Nuits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des contes des Mille et Une Nuits varie en fonction des éditions (voir la liste des traductions plus bas). Voici les listes des contes en fonction de certaines éditions.
 </t>
@@ -511,11 +523,47 @@
           <t>Liste des contes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NOTE : Le nombre entre parenthèses indique la nuit où commence le conte (et que le conte précédent finit).
-Édition d'Antoine Galland
-Antoine Galland est à l'origine de la première traduction occidentale du recueil de contes, publiée de 1704 à 1717[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NOTE : Le nombre entre parenthèses indique la nuit où commence le conte (et que le conte précédent finit).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Édition d'Antoine Galland</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antoine Galland est à l'origine de la première traduction occidentale du recueil de contes, publiée de 1704 à 1717 :
 Prologue (histoire de Chahriar et Shéhérazade)
 L'âne, le bœuf et le laboureur
 I. Le marchand et le génie
@@ -565,11 +613,84 @@
 VII. Histoire de Camaralzaman et de la princesse Boudour
 VIII. Les aventures de Hassan de Balsora
 IX. Histoire d’Aladdin, ou la Lampe magique
-X. Ali Baba et les quarante voleurs
-Édition de Richard Francis Burton
-Richard Francis Burton publia d'abord en 1885 The Book of the Thousand Nights and a Night (en 10 volumes). Ensuite, il publia en supplément Supplemental Nights (6 volumes) entre 1886 et 1888. La liste des contes, en anglais :
-The Book of the Thousand Nights and a Night
-Story of King Shahryar and His Brother (1–1001)
+X. Ali Baba et les quarante voleurs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Édition de Richard Francis Burton</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Francis Burton publia d'abord en 1885 The Book of the Thousand Nights and a Night (en 10 volumes). Ensuite, il publia en supplément Supplemental Nights (6 volumes) entre 1886 et 1888. La liste des contes, en anglais :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Édition de Richard Francis Burton</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>The Book of the Thousand Nights and a Night</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Story of King Shahryar and His Brother (1–1001)
 Tale of the Bull and the Ass (Told by the Vizier) (0)
 Tale of the Trader and the Jinn (2–3)
 The First Shaykh's Story (2)
@@ -854,9 +975,47 @@
 Ma'aruf the Cobbler and His Wife Fatimah (990–1001)
 Conclusion of Shahrazad and Shahryar
 Ma'aruf the Cobbler and His Wife Fatimah (990–1001)
-Conclusion of Shahrazad and Shahryar
-Supplemental Nights
-The Sleeper and the Waker
+Conclusion of Shahrazad and Shahryar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Édition de Richard Francis Burton</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Supplemental Nights</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Sleeper and the Waker
 Story of the Larrikin and the Cook
 The Caliph Omar Bin Abd al-Aziz and the Poets
 Al-Hajjaj and the Three Young Men
@@ -1113,9 +1272,43 @@
 History of What Befel the Fowl-let with the Fowler
 The Tale of Attaf
 History of Prince Habib and What Befel Him With the Lady Durrat Al-Ghawwas
-The History of Durrat Al-Ghawwas
-Édition de René R. Khawam
-Version des contes publiées dans les années 1980 par l'écrivain franco-syrien René R. Khawam.
+The History of Durrat Al-Ghawwas</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Édition de René R. Khawam</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Version des contes publiées dans les années 1980 par l'écrivain franco-syrien René R. Khawam.
 Tome 1 : Dames insignes et serviteurs galants
 La tisserande des nuits, histoire du roi Chahriyâr et de la belle Chahrazade
 Histoire de l'âne, du taureau et du laboureur
@@ -1162,9 +1355,43 @@
 Le sage persan
 Le khalife et le fou
 L'époux mis à l'épreuve
-La force de l'amour
-Édition de Jamel Eddine Bencheikh et André Miquel
-Version des contes traduits par Jamel Eddine Bencheikh et André Miquel, Gallimard, La Pléiade (3 vol.), 2005. Il s'agit de la première traduction en français de la totalité des 1 205 poèmes contenus dans l'édition de Boulaq[2].
+La force de l'amour</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des contes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Édition de Jamel Eddine Bencheikh et André Miquel</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Version des contes traduits par Jamel Eddine Bencheikh et André Miquel, Gallimard, La Pléiade (3 vol.), 2005. Il s'agit de la première traduction en français de la totalité des 1 205 poèmes contenus dans l'édition de Boulaq.
 Conte du roi Shahriyar et de son frère le roi Shah Zaman
 (Conte du père de Shéhérazade)
 Histoire de l'âne, du bœuf, et du laboureur
@@ -1280,35 +1507,179 @@
 Conte du nigaud et de son âne (388)
 Conte de Haroun ar-Rachid, de Zoubayda et d'Abou Youssouf (388)
 Conte d'al-Hakim et de son hôte (389)
-Conte d'Anouchirouan et</t>
+Conte d'Anouchirouan et de la jeune paysanne (389)
+Conte de l'orfèvre et de sa femme (390)
+Conte de Khousraou et du pêcheur (391)
+Conte de Yahya le Barmécide et de l'hôte indélicat (391)
+Conte de Jafar ben Mousa et d'al-Amin (392)
+Conte de l'homme endetté et des Barmécides (392)
+Conte du mari trompé (393)
+Conte de la femme au bain et des deux vieillards (394)
+Conte de Jafar en faux médecin (394)
+Conte d'Oumar et du jeune meurtrier (395)
+Conte d'alMamoun et des Pyramides (397)
+Conte du voleur repenti (398)
+Conte de Haroun ar-Rachid et de l'amuseur (399)
+Conte de Haroun ar-Rachid et de son fils pieux (401)
+Conte du maître d'école amoureux (402)
+Conte d'une automutilation (403)
+Conte du faux maître d'école (403)
+Conte du roi et de l'épouse fidèle (404)
+Conte de l'oiseau rokh (404)
+Conte de Hind, fille d'an-Nouman (405)
+Conte de Dibil et de Muslim ibn al-Walid (407)
+Conte d'Ishaq al-Maousili et de la chanteuse (407)
+Conte des trois amants (409)
+Conte d'un amour chez les Banou Tavy (410)
+Conte de l'ermite amoureux (411)
+Conte des moines convertis (412)
+Conte d'Abou Isa et de Quourat al-Ayn (414)
+Conte d'al-Amin et de la chanteuse (418)
+Conte de la guérison d'al-Moutaouakkil (419)
+Conte de la prédicatrice (419)
+Conte de la vieille aux cheveux blancs (423)
+Conte d'Ali ben Mouhammad et de la chanteuse
+Conte des deux amantes (424)
+Conte d'Ali al-Misri (424)
+Conte du pèlerin égaré (434)
+Conte de Taouaddoud la jeune esclave (436)
+Conte de l'ange de la mort, du roi et du saint homme (462)
+Conte de l'ange de la mort et du roi (462)
+Conte de l'ange de la mort et du roi d'Israël (463)
+Conte d'Alexandre et du roi pauvre (464)
+Conte d'Anouchirouan, roi exemplaire (464)
+Conte de l'épouse innocente (465)
+Conte de la mère sauvée des eaux (466)
+Conte de l'esclave noir transfiguré (467)
+Conte du pieux vannier (468)
+Conte d'al-Hajjaj et de son prisonnier (470)
+Conte du forgeron repenti (471)
+Conte du saint roi (473)
+Conte du soldat musulman et de la jeune chrétienne (474)
+Conte de la fille du roi chrétien (477)
+Conte du prophète et du secret divin (478)
+Conte du passeur et du mystique (479)
+Conte du pieux Israélite devenu roi (479)
+Conte du saint lépreux (481)
+Conte de Hasid Karim ad-Din (482)
+Conte de Sindbad de la mer (537)
+Le premier voyage : De l'île baleine au royaume des cavales
+Le deuxième voyage : L'oiseau rokh et la Vallée aux diamants
+Le troisième voyage : Les singes et le monstre noir
+Le quatrième voyage : Dans la caverne des mourants
+Le cinquième voyage : Le vieillard stanique et l'île aux singes
+Le sixième voyage : La rivière aux trésors
+Le septième voyage : La mer du bout du monde
+Conte de la Ville de Cuivre (566)
+Conte du roi, de son fils et des sept vizirs (578)
+Histoire du roi et de l'épouse de son vizir
+Histoire du marchand, de sa femme et du perroquet
+Histoire du foulon et de son fils
+Histoire de l'épouse injustement accusée
+Histoire des deux fouaces
+Histoire de la femme et de ses deux amants
+Histoire du fils du roi et de la démone
+Histoire de la goutte de miel
+Histoire de la femme et du marchand d'huile
+Histoire de la source enchantée
+Histoire de l'employé aux bains, de sa femme et du fils du vizir
+Histoire de la femme qui berna son mari
+Histoire de l'orfèvre et de la musicienne
+Histoire de l'homme qui fut réduit à ne plus rire
+Histoire du marchand, de sa femme et du fils du roi
+Histoire de l'esclave qui se disait interprète des oiseaux
+Histoire de la femme et de ses cinq galants
+Histoire des trois souhaits
+Histoire du collier disparu
+Histoire des deux pigeons
+Histoire de Bahram et de Datma
+Histoire de la maison du Belvédère
+Histoire du fils du roi, de la femme et de l'ifrit
+Histoire du marchand de santal
+Histoire du débauché et du petit enfant
+Histoire du sac volé
+Conte de Joudar et de ses frères (606)
+Conte d'Ajib et de Gharib (624)
+Conte d'Outba et de Rayya (680)
+Conte de Hind, fille d'an-Nouman (681)
+Conte de Khouzayma ben Bichr al-Asadi (683)
+Conte de Younous le Scribe et d'al-Walid ben Sahl (684)
+Conte de Haroun ar-Rachid et de la jeune Arabe (685)
+Conte d'al-Asmaï et des trois jeunes femmes (686)
+Conte d'Ibrahim al-Maousili et du diable (687)
+Conte des amants des Banou Oudhra (688)
+Conte de l'Arabe et de sa femme (691)
+Conte des amants fâchés (693)
+Conte d'Ichaq ibn Ibrahim al-Maousili et du diable (695)
+Conte des amours du jeune Médinois (696)
+Conte de Saladin et de son vizir (697)
+Conte de Dalila la Rouée et d'Ali Vif-Argent (698)
+Histoire d'Ali Vif-Argent
+Conte du prince Ardachir et de Hayat an-Noufous (719)
+Conte de Jullana de la Mer, de son fils Badr Basim et de la princesse Jaouhara (738)
+Conte de Sayf al-Moulouk et de Badiat al-Jamal (756)
+Conte de Hasan al-Basri (778)
+Conte de Khalifa le pêcheur (831)
+Conte de Masrour et de Zayn al-Maouasif (845)
+Conte d'Ali Nour ad-Din et de Maryam la Ceinturière (863)
+Conte de l'homme de Haute-Égypte et de son épouse franque (894)
+Conte du jeune Bagdadien et de sa jeune esclave (896)
+Conte du roi Jaliad et de son fils Wird-Khan et du vizir Chimas (899)
+Histoire du rat et du chat
+Histoire du saint homme et de sa cruche de beurre
+Histoire des poissons et du crabe
+Histoire du corbeau et du serpent
+Histoire du renard et de l'onagre
+Histoire du roi et de son fils pèlerin
+Histoire des corbeaux et du faucon
+Histoire du charmeur de serpents et de sa famille
+Histoire de l'araignée et du vent
+Histoire des deux bois
+Histoire de l'aveugle et du paralytique
+Histoire du pêcheur fou
+Histoire du jeune garçon et des voleurs
+Histoire de l'homme, de sa femme et des deux jeunes gens
+Histoire du loup et des renards
+Histoire du berger et des voleurs
+Histoire du francolin et des tortues
+Conte d'Abou Qir et Abou Sir (930)
+Conte d'Abdallah de la Terre et Abdallah de la Mer (940)
+Conte de Haroun ar-Rachid et du jeune Omanais (946)
+Conte d'Ibrahim et de Jamila (952)
+Conte d'Abou al-Hasan al-Khourasani (959)
+Conte de Qamar az-Zaman et de la femme du joaillier (963)
+Conte d'Abdallah ibn Fadil et de ses frères (978)
+Conte de Marouf le savetier (989)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Histoires généralement associées aux Mille et Une Nuits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Aladin ou la Lampe merveilleuse
 Ali Baba et les Quarante Voleurs
@@ -1316,31 +1687,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Liste_des_contes_des_Mille_et_Une_Nuits</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Liste_des_contes_des_Mille_et_Une_Nuits</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Les différents textes publiés peuvent présenter d'importantes différences. Ils sont issus de quelque 70 manuscrits originaux, qui appartiennent généralement à deux grandes lignées : d'une part les textes dits de la branche égyptienne (éditions Bûlâq / Calcutta), généralement les plus complètes, et d'autre part les manuscrits issus de la branche syrienne (dont le texte de Galland). Les traductions proposées sont parfois issues de recompositions de plusieurs manuscrits. 
 De nombreuses traductions ont été ensuite proposées en différentes langues : 
